--- a/rotation_distribution.xlsx
+++ b/rotation_distribution.xlsx
@@ -531,25 +531,25 @@
         <v>11</v>
       </c>
       <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>11</v>
-      </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>11</v>
@@ -558,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="L2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M2">
         <v>11</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -572,7 +572,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -590,10 +590,10 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -625,16 +625,16 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>9</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -652,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -663,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>8</v>
@@ -690,7 +690,7 @@
         <v>7</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -707,40 +707,40 @@
         <v>11</v>
       </c>
       <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
       <c r="J6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <v>14</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -754,37 +754,37 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -792,43 +792,43 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>4</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -836,43 +836,43 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
       <c r="G9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -880,25 +880,25 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -907,16 +907,16 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -927,40 +927,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -968,40 +968,40 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J12">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>16</v>
@@ -1021,13 +1021,13 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -1036,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -1045,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>7</v>
@@ -1059,40 +1059,40 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>6</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K14">
         <v>6</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1100,43 +1100,43 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>11</v>
       </c>
       <c r="I15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1147,10 +1147,10 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -1191,40 +1191,40 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1238,37 +1238,37 @@
         <v>3</v>
       </c>
       <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1279,37 +1279,37 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -1320,43 +1320,43 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1408,40 +1408,40 @@
         <v>33</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
       <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
       <c r="H22">
         <v>4</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <v>5</v>
@@ -1452,43 +1452,43 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>10</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N23">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
